--- a/DataMacDinh.xlsx
+++ b/DataMacDinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Congviec2023\Autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D4C1E-2F3B-440F-947D-19FD53DD6D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AE0A5-C248-46B8-B2C4-3D89A939A64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D360F2B5-4EEF-4010-962E-27EA3DFA853D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATA SANJI SETUP MẶC ĐỊNH</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>tkface02@gmail.com</t>
+  </si>
+  <si>
+    <t>Quốc tịch mặc định</t>
+  </si>
+  <si>
+    <t>CHN</t>
   </si>
 </sst>
 </file>
@@ -150,11 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026A95F1-A45F-4771-8005-7FE08B44E179}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -484,18 +490,20 @@
     <col min="3" max="3" width="16.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,9 +519,12 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -527,11 +538,14 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{3330072A-D631-420A-94F1-C7F89E7CCF81}"/>

--- a/DataMacDinh.xlsx
+++ b/DataMacDinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Congviec2023\Autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AE0A5-C248-46B8-B2C4-3D89A939A64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4D3843-5CCB-4A15-A08F-01B08B5CA76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D360F2B5-4EEF-4010-962E-27EA3DFA853D}"/>
   </bookViews>
@@ -65,13 +65,13 @@
     <t>101</t>
   </si>
   <si>
-    <t>tkface02@gmail.com</t>
-  </si>
-  <si>
     <t>Quốc tịch mặc định</t>
   </si>
   <si>
     <t>CHN</t>
+  </si>
+  <si>
+    <t>sanji@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -520,12 +520,12 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
